--- a/medicine/Enfance/Elsa_van_Hagendoren/Elsa_van_Hagendoren.xlsx
+++ b/medicine/Enfance/Elsa_van_Hagendoren/Elsa_van_Hagendoren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elsa van Hagendoren ou Else Oosterlinck-van Hagendoren (née le 4 décembre 1904 à Gembloux) est une illustratrice et écrivaine belge. Elle illustre des livres pour enfants, des magazines, des affiches, des couvertures, des manuels et des romans. Ses sujets vont des voyages de découverte en Afrique (Penge, le Pygmée) à des histoires sur la nature (La Bruyère, La Forêt, La Prairie).
-Elle a utilisé différentes techniques dans ses illustrations telles que la plume et l'encre et les lithographies[1].
+Elle a utilisé différentes techniques dans ses illustrations telles que la plume et l'encre et les lithographies.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elsa van Hagendoren est née à Gembloux le 4 décembre 1904[2],[3].
-De 1919 à 1921, elle vit avec ses parents en Colombie et commence sa première formation en dessin à l'académie (Escuela de Bellas Artes, Universidad Nacional) de Bogota. Plus tard, elle termine ses études à l'Académie royale des Beaux-Arts et à l'Institut Supérieur des Beaux-Arts d'Anvers, où elle est influencée, entre autres, par son professeur Gustave van de Woestyne[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elsa van Hagendoren est née à Gembloux le 4 décembre 1904,.
+De 1919 à 1921, elle vit avec ses parents en Colombie et commence sa première formation en dessin à l'académie (Escuela de Bellas Artes, Universidad Nacional) de Bogota. Plus tard, elle termine ses études à l'Académie royale des Beaux-Arts et à l'Institut Supérieur des Beaux-Arts d'Anvers, où elle est influencée, entre autres, par son professeur Gustave van de Woestyne,.
 Après ses études, elle entre en contact avec un certain nombre d'éditeurs, dont la librairie hollandaise het Getij à Mortsel, dirigée par l'expert littéraire néerlandais Herman Oosterwijk (1902-1960), qu'elle épouse plus tard, et la maison d'édition De Sikkel à Anvers. Celles-ci lui permettent de développer son talent d'illustratrice dans de nombreux livres.
-Elle est surtout connue pour son travail d'illustratrice mais a également écrit ses propres récits, soit une dizaine de livres pour enfants dont quatre ont été récompensés. Dans Twee jaar in de Andes et Jeugdherinneringen uit Zuid-Amerika, elle raconte son enfance en Amérique du Sud (sous le nom d'auteur Else Oosterwijk-van Hagendoren)[6].
-Elsa van Hagendoren est membre de l'Association flamande de littérature[7].
-En 1940, elle participe à l'exposition Aspekten der hedendasgsche tekenkunst et grafiek (Aspects du dessin et du graphisme contemporain dessin)[8].
+Elle est surtout connue pour son travail d'illustratrice mais a également écrit ses propres récits, soit une dizaine de livres pour enfants dont quatre ont été récompensés. Dans Twee jaar in de Andes et Jeugdherinneringen uit Zuid-Amerika, elle raconte son enfance en Amérique du Sud (sous le nom d'auteur Else Oosterwijk-van Hagendoren).
+Elsa van Hagendoren est membre de l'Association flamande de littérature.
+En 1940, elle participe à l'exposition Aspekten der hedendasgsche tekenkunst et grafiek (Aspects du dessin et du graphisme contemporain dessin).
 </t>
         </is>
       </c>
@@ -548,10 +562,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1953, les livres De beek et De weide ont reçu le prix de la province d'Anvers pour les meilleurs livres pour enfants[6].
-En 1971, Kraterland reçoit le prix « livre méritoire pour la jeunesse » de la députation permanente d'Anvers[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1953, les livres De beek et De weide ont reçu le prix de la province d'Anvers pour les meilleurs livres pour enfants.
+En 1971, Kraterland reçoit le prix « livre méritoire pour la jeunesse » de la députation permanente d'Anvers.
 </t>
         </is>
       </c>
@@ -582,8 +598,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Comme auteure
-De aap en het parelhoen, 1933
+          <t>Comme auteure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>De aap en het parelhoen, 1933
 De beek, 1953
 Het bos, 1950
 Diep in het woud, 1956
@@ -595,9 +616,43 @@
 Het schoone konijn, 1933
 Twee jaar in de Andes: jeugdherinneringen uit Zuid-Amerika, 1943
 Voor mijn kleine kinders: drie vertelsels
-De weide, 1953
-Comme illustratrice
-Loden Baekelmans, Jan, 1934
+De weide, 1953</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elsa_van_Hagendoren</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elsa_van_Hagendoren</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Comme illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Loden Baekelmans, Jan, 1934
 Hendrik Baelen, Een tooverland : een nieuw sprookje, 1931
 Claudine Bienfait, Ali Baba en de veertig rovers, gevolgd door : Het tooverpaard
 Frank Blauwers, Maya, maya, 1965
